--- a/medicine/Enfance/Jeanne_Judson/Jeanne_Judson.xlsx
+++ b/medicine/Enfance/Jeanne_Judson/Jeanne_Judson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne Judson, née le 5 septembre 1888[1] au Michigan et morte le 9 janvier 1981 à New York, est une journaliste et auteur américain de roman d'amour et de textes de littérature d'enfance et de jeunesse. Elle a également publié sous le pseudonyme Frances Dean Hancock une vingtaine de romans d'amour et a signé Emily Thorne des ouvrages de littérature d'enfance et de jeunesse et des romans policiers, dont quelques-uns ont été traduits en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Judson, née le 5 septembre 1888 au Michigan et morte le 9 janvier 1981 à New York, est une journaliste et auteur américain de roman d'amour et de textes de littérature d'enfance et de jeunesse. Elle a également publié sous le pseudonyme Frances Dean Hancock une vingtaine de romans d'amour et a signé Emily Thorne des ouvrages de littérature d'enfance et de jeunesse et des romans policiers, dont quelques-uns ont été traduits en France.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle amorce sa carrière littéraire dès 1911 en publiant Dave Darrin’s Third Year at Annapolis sous le pseudonyme Frances Dean Hancock. Elle donne ensuite, sous son patronyme, des nouvelles sentimentales dans des magazines parfois destinés à la jeunesse. En parallèle, elle travaille comme reporter à Grand Rapids, au Michigan, puis à Chicago, Détroit, San Francisco et à Saint-Louis. 
 En 1917, une de ses nouvelles sert de base au film Social Briars réalisé par Henry King. En 1918, elle publie en feuilleton dans Redbook Magazine le court roman The Call of Life, qui devient l'année suivante le film Beckoning Roads. Le roman est alors repris en volume sous ce titre. Pendant la Première Guerre mondiale, elle est envoyée en  Angleterre comme correspondante de guerre pour le compte de la presse américaine, mais une fois sur place, elle assume aussi un poste d'infirmière dans un hôpital. Cette expérience lui permet de publier des articles sur la Croix-Rouge dans plusieurs magazines jusqu'à son retour en Amérique.
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Beckoning Roads ou The Call of Life (1919)
 The Stars Incline (1920)
 The Other Basket (1952)
@@ -595,8 +615,47 @@
 The Only Girl (1975)
 A Pledge of Love (1975)
 The Walled Garden (1975)
-Romans signés Frances Dean Hancock
-Dave Darrin’s Third Year at Annapolis (1911)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans signés Frances Dean Hancock</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dave Darrin’s Third Year at Annapolis (1911)
 Abby Goes to Washington (1957)
 Betty Terry Beauty Editor (1957)
 Summer Cruise (1958)
@@ -615,9 +674,47 @@
 Laura Sees It Through (1967)
 Mysterious Isle (1967)
 Forever Julie (1968)
-Legacy of Fear (1969)
-Romans signés Emily Thorne
-Enter Nurse Marian ou Small Town Nurse (1956)
+Legacy of Fear (1969)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans signés Emily Thorne</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enter Nurse Marian ou Small Town Nurse (1956)
 A Cup for Janet (1957)
 Flight Hostess (1958)
 The Magic Words (1959) Publié en français sous le titre La Parole d'or, Verviers, Gérard et Cie, « Marabout Mademoiselle » no 160, 1962
@@ -628,9 +725,43 @@
 Nothing to Pretend (1963)
 A Thing of Beauty (1963)
 Embassy Girl (1964)
-The House on 16th Street (1967)	 Publié en français sous le titre La Maison de la 16e rue, Paris, Éditions mondiales, « Delphine » no 402, 1979
-Nouvelles
-The Wind that Blows (1917)
+The House on 16th Street (1967)	 Publié en français sous le titre La Maison de la 16e rue, Paris, Éditions mondiales, « Delphine » no 402, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Judson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Wind that Blows (1917)
 The Little Parasites (1917)
 The Dangerous Woman (1917)
 That Strange Girl (1917)
@@ -648,31 +779,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jeanne_Judson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jeanne_Judson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1918 : Son triomphe (Social Briars), film muet américain de Henry King, d'après la nouvelle The Little Parasites, avec Mary Miles Minter
 1919 : Beckoning Roads, film muet américain de Howard C. Hickman, d'après le roman The Call of Life, avec Bessie Barriscale et George Periolat</t>
